--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5C5C146F-41EE-44EF-873D-68AC7E49B13E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D84913BC-4EE1-462D-B72B-00BD98D0D434}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>Comments</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Regional Maps</t>
+  </si>
+  <si>
+    <t>assigned codes to codeless moves</t>
   </si>
 </sst>
 </file>
@@ -631,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1019,9 @@
       <c r="E36" t="s">
         <v>64</v>
       </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D84913BC-4EE1-462D-B72B-00BD98D0D434}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F39C038B-6752-4F81-8F3D-013EC4DE02B0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>Comments</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>assigned codes to codeless moves</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>all pokemon in</t>
+  </si>
+  <si>
+    <t>tm/hm CODING</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +881,12 @@
       <c r="E18" t="s">
         <v>49</v>
       </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>78</v>
       </c>
@@ -901,6 +916,9 @@
       </c>
       <c r="G21" t="s">
         <v>55</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F39C038B-6752-4F81-8F3D-013EC4DE02B0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5DA89599-7FD3-44EC-84D2-9CC75FFFFC57}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Comments</t>
   </si>
@@ -280,6 +280,51 @@
   </si>
   <si>
     <t>tm/hm CODING</t>
+  </si>
+  <si>
+    <t>Add Prison Maps</t>
+  </si>
+  <si>
+    <t>SAGE Sidequest</t>
+  </si>
+  <si>
+    <t>Define Sage Pokemon</t>
+  </si>
+  <si>
+    <t>Guide Tasks</t>
+  </si>
+  <si>
+    <t>Comments?</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>Pokedex</t>
+  </si>
+  <si>
+    <t>Abilites</t>
+  </si>
+  <si>
+    <t>Moves</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Whats New</t>
+  </si>
+  <si>
+    <t>Regional Variants</t>
+  </si>
+  <si>
+    <t>Z Moves</t>
+  </si>
+  <si>
+    <t>Guide</t>
   </si>
 </sst>
 </file>
@@ -641,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +699,7 @@
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -704,6 +749,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
@@ -842,6 +890,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I15" t="s">
         <v>75</v>
       </c>
@@ -854,7 +905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -874,7 +925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -891,7 +942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -902,7 +953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>51</v>
       </c>
@@ -910,7 +961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>52</v>
       </c>
@@ -921,17 +972,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -941,13 +992,16 @@
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -960,63 +1014,96 @@
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1029,8 +1116,11 @@
       <c r="G35" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1040,13 +1130,24 @@
       <c r="G36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>65</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5DA89599-7FD3-44EC-84D2-9CC75FFFFC57}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CADD7DF4-3867-4614-B275-61D5F54D0464}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Comments</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Guide</t>
+  </si>
+  <si>
+    <t>Change Habitat to Shape</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,13 +995,16 @@
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CADD7DF4-3867-4614-B275-61D5F54D0464}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{7026E802-CCFB-48F6-BBD6-1B28D1B2A86C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>Comments</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Change Habitat to Shape</t>
+  </si>
+  <si>
+    <t>Add Sage and Orange Trainers in</t>
+  </si>
+  <si>
+    <t>Sage Events</t>
+  </si>
+  <si>
+    <t>See Sage Sheet</t>
   </si>
 </sst>
 </file>
@@ -691,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +772,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -957,6 +969,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
       <c r="E20" t="s">
         <v>51</v>
       </c>
@@ -1075,6 +1093,9 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
       <c r="E31" t="s">
         <v>61</v>
       </c>
@@ -1084,7 +1105,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>62</v>
@@ -1095,7 +1116,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s">
         <v>95</v>
@@ -1103,7 +1124,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
         <v>96</v>
@@ -1111,7 +1132,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>63</v>
@@ -1128,7 +1149,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>64</v>
@@ -1141,9 +1162,6 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
       <c r="E37" t="s">
         <v>65</v>
       </c>

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{7026E802-CCFB-48F6-BBD6-1B28D1B2A86C}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FBD0FF0B-2F99-44AD-9CAD-216B124FB462}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Comments</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>See Sage Sheet</t>
+  </si>
+  <si>
+    <t>Foot prints</t>
+  </si>
+  <si>
+    <t>Cries</t>
   </si>
 </sst>
 </file>
@@ -700,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1022,12 @@
       <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1029,14 +1041,8 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>88</v>
@@ -1052,8 +1058,14 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="s">
-        <v>57</v>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>90</v>
@@ -1064,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
         <v>91</v>
@@ -1075,7 +1087,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
         <v>74</v>
@@ -1086,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
         <v>92</v>
@@ -1097,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
         <v>93</v>
@@ -1108,7 +1120,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
         <v>94</v>
@@ -1118,6 +1130,9 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
       <c r="I33" t="s">
         <v>95</v>
       </c>
@@ -1134,15 +1149,6 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="I35" s="2" t="s">
         <v>97</v>
       </c>
@@ -1151,25 +1157,37 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
       <c r="I38" s="2" t="s">
         <v>99</v>
       </c>

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FBD0FF0B-2F99-44AD-9CAD-216B124FB462}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{0499216A-A761-463E-BBF6-02F55E83AA1C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>Comments</t>
   </si>
@@ -343,6 +343,24 @@
   </si>
   <si>
     <t>Cries</t>
+  </si>
+  <si>
+    <t>Novels</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Book Two - Johto</t>
+  </si>
+  <si>
+    <t>Book One - Kanto</t>
+  </si>
+  <si>
+    <t>Book Three - UB Story</t>
+  </si>
+  <si>
+    <t>Book Four - Post Game</t>
   </si>
 </sst>
 </file>
@@ -704,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +738,13 @@
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,8 +772,17 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -762,8 +792,11 @@
       <c r="I2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -773,16 +806,22 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -795,8 +834,11 @@
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -813,7 +855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -824,7 +866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>41</v>
       </c>
@@ -832,7 +874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,7 +888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -857,7 +899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -865,7 +907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -882,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -893,7 +935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -907,7 +949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -918,7 +960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1069,6 +1111,9 @@
       </c>
       <c r="I27" t="s">
         <v>90</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{0499216A-A761-463E-BBF6-02F55E83AA1C}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C597F521-8CEA-477B-BB71-3A3B1EA15700}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Comments</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Book Four - Post Game</t>
+  </si>
+  <si>
+    <t>Double Up Downloaded Icons</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -1173,7 +1176,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
         <v>96</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>97</v>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>63</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
@@ -1230,6 +1233,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
       <c r="E38" t="s">
         <v>65</v>
       </c>

--- a/Data Input Sheets/Task List.xlsx
+++ b/Data Input Sheets/Task List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C597F521-8CEA-477B-BB71-3A3B1EA15700}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="26A3C0098BED397DE4AF5129F67D6ACBB6CC251C" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{4D60F478-1B3F-4FB0-B927-19CA4EA69E63}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{0A7390FF-04FC-4544-8468-1EF828D14CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>Comments</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>Double Up Downloaded Icons</t>
+  </si>
+  <si>
+    <t>New Tasks/Projects</t>
+  </si>
+  <si>
+    <t>Sage 2.0</t>
+  </si>
+  <si>
+    <t>Phoenix Rising</t>
+  </si>
+  <si>
+    <t>Lets Go?</t>
+  </si>
+  <si>
+    <t>See Short Term List</t>
   </si>
 </sst>
 </file>
@@ -725,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E390785-516B-41F9-B907-09498673F001}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,6 +1258,31 @@
         <v>99</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
